--- a/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B25DFF5-1BA3-49E5-90DC-19F62A2BC267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7411CC-7D18-4E92-BF4B-9A4BF7D22D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9C81B2F-F1AD-4C3C-B1A9-17BD2F4ABCA6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB38330F-FD76-422F-9D08-012F72690EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>79,43%</t>
   </si>
   <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>20,57%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,163 @@
     <t>73,04%</t>
   </si>
   <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
     <t>45/54</t>
   </si>
   <si>
     <t>71,87%</t>
   </si>
   <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
   </si>
   <si>
     <t>64,47%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
+    <t>61,08%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>28,13%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>38,92%</t>
   </si>
   <si>
     <t>31,87%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,10 +302,10 @@
     <t>71,13%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
   </si>
   <si>
     <t>70,96%</t>
@@ -320,31 +314,31 @@
     <t>67,96%</t>
   </si>
   <si>
-    <t>73,87%</t>
+    <t>73,89%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>26,13%</t>
+    <t>26,11%</t>
   </si>
   <si>
     <t>32,04%</t>
@@ -353,10 +347,10 @@
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +359,109 @@
     <t>69,61%</t>
   </si>
   <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403E7C51-5D07-4B12-8BA2-9A3CE9EDA46B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11DB222-D1DD-4EE5-89C0-B1E621CB527D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,7 +1486,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>1069</v>
@@ -1501,13 +1495,13 @@
         <v>918885</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1516,13 @@
         <v>187514</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -1537,13 +1531,13 @@
         <v>242376</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>600</v>
@@ -1552,13 +1546,13 @@
         <v>429890</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1608,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1620,13 @@
         <v>397854</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>618</v>
@@ -1641,13 +1635,13 @@
         <v>385525</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1040</v>
@@ -1656,13 +1650,13 @@
         <v>783379</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1671,13 @@
         <v>161515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>297</v>
@@ -1692,13 +1686,13 @@
         <v>157742</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>492</v>
@@ -1707,13 +1701,13 @@
         <v>319257</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1763,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1775,13 @@
         <v>425056</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>968</v>
@@ -1796,13 +1790,13 @@
         <v>640409</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1590</v>
@@ -1811,13 +1805,13 @@
         <v>1065464</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1826,13 @@
         <v>185562</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
@@ -1847,13 +1841,13 @@
         <v>239813</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -1862,13 +1856,13 @@
         <v>425375</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1930,13 @@
         <v>2232116</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>3145</v>
@@ -1951,13 +1945,13 @@
         <v>2361540</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5275</v>
@@ -1966,13 +1960,13 @@
         <v>4593655</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1981,13 @@
         <v>858928</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1655</v>
@@ -2002,13 +1996,13 @@
         <v>1062899</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2591</v>
@@ -2017,13 +2011,13 @@
         <v>1921828</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF7411CC-7D18-4E92-BF4B-9A4BF7D22D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3CF4DC-69BC-49B5-A630-5F025C20A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CB38330F-FD76-422F-9D08-012F72690EBF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3796A797-658D-4C6A-A0B4-D67852009210}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11DB222-D1DD-4EE5-89C0-B1E621CB527D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90C470-7668-48D5-8EFB-F60A34C178E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3CF4DC-69BC-49B5-A630-5F025C20A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092588DB-BF4B-43FC-BF69-6408C22FE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3796A797-658D-4C6A-A0B4-D67852009210}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0141B2B0-F2DB-4596-95E0-3118D5F7B57A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>79,43%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>76,86%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>20,57%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,163 +137,169 @@
     <t>73,04%</t>
   </si>
   <si>
-    <t>67,22%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>33,0%</t>
   </si>
   <si>
     <t>35,53%</t>
   </si>
   <si>
-    <t>38,92%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
   </si>
   <si>
     <t>31,87%</t>
   </si>
   <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,10 +308,10 @@
     <t>71,13%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>70,96%</t>
@@ -314,31 +320,31 @@
     <t>67,96%</t>
   </si>
   <si>
-    <t>73,89%</t>
+    <t>73,87%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>26,11%</t>
+    <t>26,13%</t>
   </si>
   <si>
     <t>32,04%</t>
@@ -347,10 +353,10 @@
     <t>28,95%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +365,109 @@
     <t>69,61%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A90C470-7668-48D5-8EFB-F60A34C178E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33896AEA-DAC8-412A-B4BE-F4C9DAB80DFC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1492,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1069</v>
@@ -1495,13 +1501,13 @@
         <v>918885</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,13 +1522,13 @@
         <v>187514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>402</v>
@@ -1531,13 +1537,13 @@
         <v>242376</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>600</v>
@@ -1546,13 +1552,13 @@
         <v>429890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1620,13 +1626,13 @@
         <v>397854</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>618</v>
@@ -1635,13 +1641,13 @@
         <v>385525</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1040</v>
@@ -1650,13 +1656,13 @@
         <v>783379</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>161515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>297</v>
@@ -1686,13 +1692,13 @@
         <v>157742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>492</v>
@@ -1701,13 +1707,13 @@
         <v>319257</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1775,13 +1781,13 @@
         <v>425056</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>968</v>
@@ -1790,13 +1796,13 @@
         <v>640409</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1590</v>
@@ -1805,13 +1811,13 @@
         <v>1065464</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1832,13 @@
         <v>185562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
@@ -1841,13 +1847,13 @@
         <v>239813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>731</v>
@@ -1856,13 +1862,13 @@
         <v>425375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1936,13 @@
         <v>2232116</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>3145</v>
@@ -1945,13 +1951,13 @@
         <v>2361540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>5275</v>
@@ -1960,13 +1966,13 @@
         <v>4593655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1987,13 @@
         <v>858928</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1655</v>
@@ -1996,13 +2002,13 @@
         <v>1062899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2591</v>
@@ -2011,13 +2017,13 @@
         <v>1921828</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{092588DB-BF4B-43FC-BF69-6408C22FE5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EB4A3A-2852-4D34-A45E-B792C9395E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0141B2B0-F2DB-4596-95E0-3118D5F7B57A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{238A54EA-320B-4233-BF4D-EB31CF90B366}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población según si diría que sentirse débil mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 89,97%)</t>
   </si>
@@ -65,409 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33896AEA-DAC8-412A-B4BE-F4C9DAB80DFC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6849E8-3353-4D26-84FB-6D2929FB3365}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1054,7 @@
         <v>115</v>
       </c>
       <c r="D4" s="7">
-        <v>258996</v>
+        <v>277548</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1069,7 @@
         <v>136</v>
       </c>
       <c r="I4" s="7">
-        <v>237210</v>
+        <v>207889</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1084,7 @@
         <v>251</v>
       </c>
       <c r="N4" s="7">
-        <v>496206</v>
+        <v>485437</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1105,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>67086</v>
+        <v>72910</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1120,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>71422</v>
+        <v>62966</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1135,7 @@
         <v>81</v>
       </c>
       <c r="N5" s="7">
-        <v>138508</v>
+        <v>135876</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1156,7 @@
         <v>149</v>
       </c>
       <c r="D6" s="7">
-        <v>326082</v>
+        <v>350458</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1171,7 @@
         <v>183</v>
       </c>
       <c r="I6" s="7">
-        <v>308632</v>
+        <v>270855</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1186,7 @@
         <v>332</v>
       </c>
       <c r="N6" s="7">
-        <v>634714</v>
+        <v>621313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1209,7 @@
         <v>202</v>
       </c>
       <c r="D7" s="7">
-        <v>287808</v>
+        <v>283805</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1224,7 @@
         <v>285</v>
       </c>
       <c r="I7" s="7">
-        <v>309843</v>
+        <v>281209</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1239,7 @@
         <v>487</v>
       </c>
       <c r="N7" s="7">
-        <v>597651</v>
+        <v>565013</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1260,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>106243</v>
+        <v>107983</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1275,7 @@
         <v>135</v>
       </c>
       <c r="I8" s="7">
-        <v>150504</v>
+        <v>196798</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1290,7 @@
         <v>214</v>
       </c>
       <c r="N8" s="7">
-        <v>256747</v>
+        <v>304782</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1311,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>394051</v>
+        <v>391788</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1326,7 @@
         <v>420</v>
       </c>
       <c r="I9" s="7">
-        <v>460347</v>
+        <v>478007</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1341,7 @@
         <v>701</v>
       </c>
       <c r="N9" s="7">
-        <v>854398</v>
+        <v>869795</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1364,7 @@
         <v>359</v>
       </c>
       <c r="D10" s="7">
-        <v>383330</v>
+        <v>364826</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1379,7 @@
         <v>479</v>
       </c>
       <c r="I10" s="7">
-        <v>348741</v>
+        <v>320677</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1394,7 @@
         <v>838</v>
       </c>
       <c r="N10" s="7">
-        <v>732071</v>
+        <v>685503</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1415,7 @@
         <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>151009</v>
+        <v>149123</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1430,7 @@
         <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>201041</v>
+        <v>191220</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1445,7 @@
         <v>473</v>
       </c>
       <c r="N11" s="7">
-        <v>352050</v>
+        <v>340343</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1466,7 @@
         <v>516</v>
       </c>
       <c r="D12" s="7">
-        <v>534339</v>
+        <v>513949</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1481,7 @@
         <v>795</v>
       </c>
       <c r="I12" s="7">
-        <v>549782</v>
+        <v>511897</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1496,7 @@
         <v>1311</v>
       </c>
       <c r="N12" s="7">
-        <v>1084121</v>
+        <v>1025846</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1519,7 @@
         <v>410</v>
       </c>
       <c r="D13" s="7">
-        <v>479071</v>
+        <v>648983</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1534,7 @@
         <v>659</v>
       </c>
       <c r="I13" s="7">
-        <v>439814</v>
+        <v>401965</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1549,7 @@
         <v>1069</v>
       </c>
       <c r="N13" s="7">
-        <v>918885</v>
+        <v>1050949</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1570,7 @@
         <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>187514</v>
+        <v>185927</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1585,7 @@
         <v>402</v>
       </c>
       <c r="I14" s="7">
-        <v>242376</v>
+        <v>227526</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1600,7 @@
         <v>600</v>
       </c>
       <c r="N14" s="7">
-        <v>429890</v>
+        <v>413452</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1621,7 @@
         <v>608</v>
       </c>
       <c r="D15" s="7">
-        <v>666585</v>
+        <v>834910</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1636,7 @@
         <v>1061</v>
       </c>
       <c r="I15" s="7">
-        <v>682190</v>
+        <v>629491</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1651,7 @@
         <v>1669</v>
       </c>
       <c r="N15" s="7">
-        <v>1348775</v>
+        <v>1464401</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1674,7 @@
         <v>422</v>
       </c>
       <c r="D16" s="7">
-        <v>397854</v>
+        <v>369433</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1689,7 @@
         <v>618</v>
       </c>
       <c r="I16" s="7">
-        <v>385525</v>
+        <v>351318</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1704,7 @@
         <v>1040</v>
       </c>
       <c r="N16" s="7">
-        <v>783379</v>
+        <v>720752</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1725,7 @@
         <v>195</v>
       </c>
       <c r="D17" s="7">
-        <v>161515</v>
+        <v>154455</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1740,7 @@
         <v>297</v>
       </c>
       <c r="I17" s="7">
-        <v>157742</v>
+        <v>147471</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1755,7 @@
         <v>492</v>
       </c>
       <c r="N17" s="7">
-        <v>319257</v>
+        <v>301926</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1776,7 @@
         <v>617</v>
       </c>
       <c r="D18" s="7">
-        <v>559369</v>
+        <v>523888</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1791,7 @@
         <v>915</v>
       </c>
       <c r="I18" s="7">
-        <v>543267</v>
+        <v>498789</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1806,7 @@
         <v>1532</v>
       </c>
       <c r="N18" s="7">
-        <v>1102636</v>
+        <v>1022678</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>622</v>
+        <v>353</v>
       </c>
       <c r="D19" s="7">
-        <v>425056</v>
+        <v>227662</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1841,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>968</v>
+        <v>523</v>
       </c>
       <c r="I19" s="7">
-        <v>640409</v>
+        <v>459435</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1856,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1590</v>
+        <v>876</v>
       </c>
       <c r="N19" s="7">
-        <v>1065464</v>
+        <v>687097</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1877,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>273</v>
+        <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>185562</v>
+        <v>104354</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1892,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>458</v>
+        <v>221</v>
       </c>
       <c r="I20" s="7">
-        <v>239813</v>
+        <v>106936</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1907,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>731</v>
+        <v>382</v>
       </c>
       <c r="N20" s="7">
-        <v>425375</v>
+        <v>211290</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>895</v>
+        <v>514</v>
       </c>
       <c r="D21" s="7">
-        <v>610618</v>
+        <v>332016</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1426</v>
+        <v>744</v>
       </c>
       <c r="I21" s="7">
-        <v>880222</v>
+        <v>566371</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2321</v>
+        <v>1258</v>
       </c>
       <c r="N21" s="7">
-        <v>1490839</v>
+        <v>898387</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,34 +1975,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2130</v>
+        <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>2232116</v>
+        <v>165536</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>3145</v>
+        <v>445</v>
       </c>
       <c r="I22" s="7">
-        <v>2361540</v>
+        <v>221457</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>130</v>
@@ -1960,10 +2011,10 @@
         <v>131</v>
       </c>
       <c r="M22" s="7">
-        <v>5275</v>
+        <v>714</v>
       </c>
       <c r="N22" s="7">
-        <v>4593655</v>
+        <v>386993</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -1981,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>936</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7">
-        <v>858928</v>
+        <v>72441</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -1996,34 +2047,34 @@
         <v>137</v>
       </c>
       <c r="H23" s="7">
-        <v>1655</v>
+        <v>237</v>
       </c>
       <c r="I23" s="7">
-        <v>1062899</v>
+        <v>113242</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>349</v>
+      </c>
+      <c r="N23" s="7">
+        <v>185683</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>2591</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1921828</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>381</v>
+      </c>
+      <c r="D24" s="7">
+        <v>237977</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>682</v>
+      </c>
+      <c r="I24" s="7">
+        <v>334699</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1063</v>
+      </c>
+      <c r="N24" s="7">
+        <v>572676</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2130</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2337794</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3145</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2243949</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5275</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4581743</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>936</v>
+      </c>
+      <c r="D26" s="7">
+        <v>847193</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1655</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1046159</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2591</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1893352</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3066</v>
       </c>
-      <c r="D24" s="7">
-        <v>3091044</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3184987</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4800</v>
       </c>
-      <c r="I24" s="7">
-        <v>3424439</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3290108</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>7866</v>
       </c>
-      <c r="N24" s="7">
-        <v>6515483</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6475095</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
